--- a/Oceano.xlsx
+++ b/Oceano.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swarnjeetsingh/Documents/Projects/ecomm-oceano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E088464-488C-8648-A3C9-E2630D8E8A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB04DB-4314-EA41-AD7E-BB7BA3E9265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{446970C8-80E2-C142-9FB9-D5D8363202F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="ShippingDetails" sheetId="3" r:id="rId2"/>
-    <sheet name="UserOrders" sheetId="4" r:id="rId3"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="userAudit" sheetId="5" r:id="rId2"/>
+    <sheet name="userAddress" sheetId="3" r:id="rId3"/>
+    <sheet name="userAddressAudit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -76,40 +77,91 @@
     <t>null</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>userType enum</t>
-  </si>
-  <si>
     <t>userType</t>
   </si>
   <si>
-    <t>distributor | admin | consumer</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>shiping address</t>
-  </si>
-  <si>
-    <t>52, Vaishali Apartment, Block F, Vikaspuri, New Delhi - 110018</t>
-  </si>
-  <si>
-    <t>shiping contact</t>
-  </si>
-  <si>
-    <t>Shiping To</t>
-  </si>
-  <si>
     <t>Manjeet Singh</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>isBillingAddress</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(254)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>auto increment</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>enum userType { "ADMIN", "DISTRIBUTOR", "CONSUMER"}</t>
+  </si>
+  <si>
+    <t>createdOn</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>modifiedOn</t>
+  </si>
+  <si>
+    <t>modifiedBy</t>
   </si>
 </sst>
 </file>
@@ -509,39 +561,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFC89BF-E8B0-C940-89D4-DE60F3EC282B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="1"/>
     <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.1640625" style="1"/>
-    <col min="12" max="12" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.1640625" style="1"/>
+    <col min="9" max="9" width="13.1640625" style="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -556,27 +606,21 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -594,16 +638,119 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CF741AA7-E5B0-8E4D-9AC5-33B6DCBAE721}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F4AB8F9F-A9C1-2148-BD63-858F07F5B7B1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CF741AA7-E5B0-8E4D-9AC5-33B6DCBAE721}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F4AB8F9F-A9C1-2148-BD63-858F07F5B7B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -611,11 +758,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E2F852-EBBC-5542-9043-07EA4598DF2E}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5592229C-772E-744F-A3C0-2E8174FCC317}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="13.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9891796895</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{014E6632-7237-CD4B-8A7B-F0C476C73D1C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6BF3FD5A-97FD-F74E-B9AF-E10DCDFE74D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E2F852-EBBC-5542-9043-07EA4598DF2E}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,34 +880,56 @@
     <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.1640625" style="1"/>
-    <col min="11" max="11" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="13.1640625" style="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -658,13 +937,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
         <v>9911991257</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>121003</v>
       </c>
     </row>
   </sheetData>
@@ -673,12 +955,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98ECCFB-C38E-2542-A9F4-B2207BB2CD00}">
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
